--- a/result/metrics_values/mall-cloud-alibaba.xlsx
+++ b/result/metrics_values/mall-cloud-alibaba.xlsx
@@ -541,12 +541,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0010372016516373764</t>
+          <t>0.0009514141605974034</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0011422833338954295</t>
+          <t>0.0011059542688842637</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00017503146430895866</t>
+          <t>0.00015762069613530993</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.00036571311471445325</t>
+          <t>0.00035461360957479037</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.0004773224733928572</t>
+          <t>0.000442486871112531</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.00034916545396162607</t>
+          <t>0.00032072800207257046</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00028978006723343963</t>
+          <t>0.000265031833580511</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.00039694269795750745</t>
+          <t>0.0003925881552583339</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.00041825994653826165</t>
+          <t>0.0003772841355418071</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.9160628064847e-05</t>
+          <t>4.466888260687308e-05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0001430202877868454</t>
+          <t>0.00013796303480718416</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.0003085769527660478</t>
+          <t>0.0002834049556422158</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.882373963878347e-05</t>
+          <t>4.4227456739859884e-05</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.0001804651875446472</t>
+          <t>0.0001719841940880975</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0069723726655593074</t>
+          <t>0.006666472533035192</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.006093080389449655</t>
+          <t>0.005947747526864737</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0022993697986661674</t>
+          <t>0.0021095974700019848</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0003858364445089507</t>
+          <t>0.00035058304833879175</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.002562093057236489</t>
+          <t>0.0027225551881735876</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.008100677819591824</t>
+          <t>0.007441468677916241</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.004758581429497474</t>
+          <t>0.004370402737008908</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.0022142666772692644</t>
+          <t>0.002024494348605082</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.0014161636657724838</t>
+          <t>0.0012752947232765987</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.002402974924071534</t>
+          <t>0.002151728197525444</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.0003024690211768537</t>
+          <t>0.0002739944880957174</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.001801676070190516</t>
+          <t>0.0016478066174788288</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">

--- a/result/metrics_values/mall-cloud-alibaba.xlsx
+++ b/result/metrics_values/mall-cloud-alibaba.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.00016818873749334907</t>
+          <t>0.00016818873749334905</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.0003772841355418071</t>
+          <t>0.0003817474022194407</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.0006572698400546766</t>
+          <t>0.0006572698400546764</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.002151728197525444</t>
+          <t>0.002214448839784821</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
